--- a/PMI_PMP_Charity_Matching_Results_Enhanced.xlsx
+++ b/PMI_PMP_Charity_Matching_Results_Enhanced.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="245">
   <si>
     <t>Charity_Organization</t>
   </si>
@@ -119,12 +119,12 @@
     <t>To Be Confirmed</t>
   </si>
   <si>
+    <t>Strategic Focus &amp; Capacity Alignment</t>
+  </si>
+  <si>
     <t>Building Projects and Working bee Plans</t>
   </si>
   <si>
-    <t>Strategic Focus &amp; Capacity Alignment</t>
-  </si>
-  <si>
     <t>A comprehensive national online resource hub that connects young people experiencing alcohol and oth...</t>
   </si>
   <si>
@@ -149,12 +149,12 @@
     <t>We are yet to finalise the best initiative or project</t>
   </si>
   <si>
+    <t>TEC staff are stretched across too many roles and tasks, often working in the project rather than on...</t>
+  </si>
+  <si>
     <t>We currently organise a range of small to medium building projects for frontline charities but inter...</t>
   </si>
   <si>
-    <t>TEC staff are stretched across too many roles and tasks, often working in the project rather than on...</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -206,42 +206,36 @@
     <t>Doris  Wang</t>
   </si>
   <si>
+    <t>Nikki Gittins</t>
+  </si>
+  <si>
     <t xml:space="preserve">Laetitia Callegari </t>
   </si>
   <si>
-    <t>Mirna Alemadi</t>
-  </si>
-  <si>
     <t>Ryan Benedek</t>
   </si>
   <si>
     <t>Neha Purohit</t>
   </si>
   <si>
+    <t>Jacqueline Shen</t>
+  </si>
+  <si>
+    <t>Shreya  Shah</t>
+  </si>
+  <si>
     <t>Suresh Reddy</t>
   </si>
   <si>
     <t xml:space="preserve">Suresh  Reddy </t>
   </si>
   <si>
-    <t>Shreya  Shah</t>
-  </si>
-  <si>
-    <t>Durita Sookharee</t>
-  </si>
-  <si>
     <t>More than 8 Years</t>
   </si>
   <si>
     <t>4 - 8 Years</t>
   </si>
   <si>
-    <t>Less than a Year</t>
-  </si>
-  <si>
-    <t>1 - 3 Years</t>
-  </si>
-  <si>
     <t>HellermannTyton</t>
   </si>
   <si>
@@ -278,6 +272,9 @@
     <t>AGSM/ Suncorp Bank</t>
   </si>
   <si>
+    <t>Atlassian</t>
+  </si>
+  <si>
     <t xml:space="preserve">PrimeScope </t>
   </si>
   <si>
@@ -287,15 +284,15 @@
     <t>The Data analytics Institute</t>
   </si>
   <si>
+    <t>Blue Yonder</t>
+  </si>
+  <si>
+    <t>Sydney Metro</t>
+  </si>
+  <si>
     <t>WBC</t>
   </si>
   <si>
-    <t>Sydney Metro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northrop consulting engineers </t>
-  </si>
-  <si>
     <t>Project Engineer</t>
   </si>
   <si>
@@ -332,27 +329,27 @@
     <t xml:space="preserve">MBA candidate/ Project Manager/ Senior Business Analyst </t>
   </si>
   <si>
+    <t xml:space="preserve">Snr Principle Program Manager [Technical] </t>
+  </si>
+  <si>
     <t>Program Director</t>
   </si>
   <si>
-    <t xml:space="preserve">Full time Medical Science and Law student, Legal Administration Volunteer and Volunteer Tutor. And learning about Design Thinking and Project Management. Recently completed the Kickoff course. </t>
-  </si>
-  <si>
     <t>Project Controls Specialist</t>
   </si>
   <si>
     <t>Associate Data Analyst</t>
   </si>
   <si>
+    <t>marketing coordinator</t>
+  </si>
+  <si>
     <t>Project Manager</t>
   </si>
   <si>
     <t>Product Owner</t>
   </si>
   <si>
-    <t xml:space="preserve">Sustainability Consultant </t>
-  </si>
-  <si>
     <t>www.linkedin.com/in/jauhar</t>
   </si>
   <si>
@@ -386,27 +383,24 @@
     <t>https://www.linkedin.com/in/doris-x-wang</t>
   </si>
   <si>
-    <t>www.linkedin.com/in/mirna-alemadi</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/ryan-benedek/</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/neha-purohit08/</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/jacqueline-shen-5b565917a/</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/shreya-shah-s</t>
+  </si>
+  <si>
     <t>www.linkedin.com/in/suresh-reddy-4a01967b</t>
   </si>
   <si>
     <t xml:space="preserve">Suresh Reddy </t>
   </si>
   <si>
-    <t>www.linkedin.com/in/shreya-shah-s</t>
-  </si>
-  <si>
-    <t>http://linkedin.com/in/durita-sookharee-pmp®-b7b826166</t>
-  </si>
-  <si>
     <t>Project Management: 5.0, Strategic Planning: 5.0, Business Analysis: 5.0</t>
   </si>
   <si>
@@ -434,30 +428,30 @@
     <t>Business Analysis: 5.0, Development of User Requirements: 5.0, Project Management: 3.0</t>
   </si>
   <si>
+    <t>Project Management: 5.0, Business Change Management: 5.0, Business Analysis: 5.0</t>
+  </si>
+  <si>
     <t>Project Management: 5.0, Business Analysis: 5.0, Business Change Management: 4.0</t>
   </si>
   <si>
-    <t>Project Management: 1.0, Strategic Planning: 1.0, Business Change Management: 1.0</t>
-  </si>
-  <si>
     <t>Project Management: 4.0, Business Change Management: 4.0, Business Analysis: 4.0</t>
   </si>
   <si>
     <t>Business Change Management: 5.0, Plan and Manage Agile Projects: 5.0, Project Management: 4.0</t>
   </si>
   <si>
+    <t>Events Planning and Management: 5.0, Project Management: 4.0, Strategic Planning: 4.0</t>
+  </si>
+  <si>
+    <t>Project Management: 3.0, Strategic Planning: 3.0, Understanding of Agile Principles: 3.0</t>
+  </si>
+  <si>
     <t>Volunteering for a Non-profit Organisation: 4.0, Events Planning and Management: 4.0, Project Management: 3.0</t>
   </si>
   <si>
     <t>Planning &amp; Management of the Implementation of New Software Solutions: 5.0, Volunteering for a Non-profit Organisation: 5.0, Project Management: 4.0</t>
   </si>
   <si>
-    <t>Project Management: 3.0, Strategic Planning: 3.0, Understanding of Agile Principles: 3.0</t>
-  </si>
-  <si>
-    <t>Project Management: 3.0, Strategic Planning: 3.0, Volunteering for a Non-profit Organisation: 3.0</t>
-  </si>
-  <si>
     <t>Strategic Planning: 10, Volunteering for a Non-profit Organisation: 6, Project Management: 4</t>
   </si>
   <si>
@@ -479,10 +473,10 @@
     <t>Business Analysis: 7, Strategic Planning: 4, Business Change Management: 4</t>
   </si>
   <si>
+    <t>Strategic Planning: 10, Events Planning and Management: 4, Project Management: 2</t>
+  </si>
+  <si>
     <t>Business Analysis: 4, Volunteering for a Non-profit Organisation: 4, Strategic Planning: 2</t>
-  </si>
-  <si>
-    <t>Strategic Planning: 10, Events Planning and Management: 4, Project Management: 2</t>
   </si>
   <si>
     <t>Organization</t>
@@ -513,12 +507,12 @@
     <t xml:space="preserve">Strategies to promote sustainable fundraising in alignment with our overall strategic plan: Deliver, Amplify, Transform. </t>
   </si>
   <si>
+    <t>TEC staff are stretched across too many roles and tasks, often working in the project rather than on it. Limited leadership and management capacity mean that opportunities are sometimes pursued without clear prioritisation, leading to overstretch, inefficiency, and reduced impact.</t>
+  </si>
+  <si>
     <t xml:space="preserve">We currently organise a range of small to medium building projects for frontline charities but internally we do not have any expertise on project building management. Having a template or system to guide us would be great. </t>
   </si>
   <si>
-    <t>TEC staff are stretched across too many roles and tasks, often working in the project rather than on it. Limited leadership and management capacity mean that opportunities are sometimes pursued without clear prioritisation, leading to overstretch, inefficiency, and reduced impact.</t>
-  </si>
-  <si>
     <t>Project Management, Strategic Planning, Volunteering for a Non-profit Organisation, Systems Integration (Business and Technical)</t>
   </si>
   <si>
@@ -555,18 +549,18 @@
     <t>Maria Mainhardt | Doris  Wang</t>
   </si>
   <si>
-    <t>Laetitia Callegari  | Mirna Alemadi</t>
+    <t xml:space="preserve">Nikki Gittins | Laetitia Callegari </t>
   </si>
   <si>
     <t>Ryan Benedek | Neha Purohit</t>
   </si>
   <si>
+    <t>Jacqueline Shen | Shreya  Shah</t>
+  </si>
+  <si>
     <t xml:space="preserve">Suresh Reddy | Suresh  Reddy </t>
   </si>
   <si>
-    <t>Shreya  Shah | Durita Sookharee</t>
-  </si>
-  <si>
     <t>91.11 | 77.04</t>
   </si>
   <si>
@@ -585,18 +579,18 @@
     <t>83.64 | 80.0</t>
   </si>
   <si>
-    <t>75.81 | 29.3</t>
+    <t>81.4 | 75.81</t>
   </si>
   <si>
     <t>75.45 | 74.55</t>
   </si>
   <si>
+    <t>73.91 | 56.96</t>
+  </si>
+  <si>
     <t>65.88 | 61.18</t>
   </si>
   <si>
-    <t>56.96 | 52.61</t>
-  </si>
-  <si>
     <t>8 | 0</t>
   </si>
   <si>
@@ -609,7 +603,10 @@
     <t>8 | 8</t>
   </si>
   <si>
-    <t>0 | 8</t>
+    <t>0 | 0</t>
+  </si>
+  <si>
+    <t>10 | 8</t>
   </si>
   <si>
     <t xml:space="preserve">PMP 1 (Jauhar Janjua) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 4); Strategic Planning (PMP: 5.0/5, Required: 10). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Arvin Arikathota) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 4); Strategic Planning (PMP: 4.0/5, Required: 10). Extensive experience (8+ years). Complete professional profile. </t>
@@ -630,18 +627,18 @@
     <t xml:space="preserve">PMP 1 (Maria Mainhardt) selected because: Strong skills in Volunteering for a Non-profit Organisation (PMP: 5.0/5, Required: 2). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Doris  Wang) selected because: Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile. </t>
   </si>
   <si>
-    <t xml:space="preserve">PMP 1 (Laetitia Callegari ) selected because: Strong skills in Business Change Management (PMP: 4.0/5, Required: 4); Business Analysis (PMP: 5.0/5, Required: 7). Extensive experience (8+ years). Complete professional profile.  | PMP 2 (Mirna Alemadi) selected because: High-quality LinkedIn profile. Complete professional profile. </t>
+    <t xml:space="preserve">PMP 1 (Nikki Gittins) selected because: Strong skills in Business Change Management (PMP: 5.0/5, Required: 4); Business Analysis (PMP: 5.0/5, Required: 7). Extensive experience (8+ years). Complete professional profile.  | PMP 2 (Laetitia Callegari ) selected because: Strong skills in Business Change Management (PMP: 4.0/5, Required: 4); Business Analysis (PMP: 5.0/5, Required: 7). Extensive experience (8+ years). Complete professional profile. </t>
   </si>
   <si>
     <t xml:space="preserve">PMP 1 (Ryan Benedek) selected because: Strong skills in Volunteering for a Non-profit Organisation (PMP: 4.0/5, Required: 2). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Neha Purohit) selected because: Strong skills in Volunteering for a Non-profit Organisation (PMP: 4.0/5, Required: 2). High-quality LinkedIn profile. Complete professional profile. </t>
   </si>
   <si>
+    <t xml:space="preserve">PMP 1 (Jacqueline Shen) selected because: Strong skills in Project Management (PMP: 4.0/5, Required: 2); Strategic Planning (PMP: 4.0/5, Required: 10). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Shreya  Shah) selected because: High-quality LinkedIn profile. Complete professional profile. </t>
+  </si>
+  <si>
     <t xml:space="preserve">PMP 1 (Suresh Reddy) selected because: Strong skills in Volunteering for a Non-profit Organisation (PMP: 4.0/5, Required: 4). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Suresh  Reddy ) selected because: Strong skills in Volunteering for a Non-profit Organisation (PMP: 5.0/5, Required: 4). Complete professional profile. </t>
   </si>
   <si>
-    <t xml:space="preserve">PMP 1 (Shreya  Shah) selected because: High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Durita Sookharee) selected because: High-quality LinkedIn profile. Complete professional profile. </t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -660,6 +657,27 @@
     <t>Enhanced_Overall_Score</t>
   </si>
   <si>
+    <t>Mirna Alemadi</t>
+  </si>
+  <si>
+    <t>Durita Sookharee</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/mirna-alemadi</t>
+  </si>
+  <si>
+    <t>http://linkedin.com/in/durita-sookharee-pmp®-b7b826166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northrop consulting engineers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full time Medical Science and Law student, Legal Administration Volunteer and Volunteer Tutor. And learning about Design Thinking and Project Management. Recently completed the Kickoff course. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sustainability Consultant </t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -669,6 +687,12 @@
     <t>Areas_of_Interest</t>
   </si>
   <si>
+    <t>Less than a Year</t>
+  </si>
+  <si>
+    <t>1 - 3 Years</t>
+  </si>
+  <si>
     <t>Strategic Planning, Business Change Management or Change Related Initiatives, Problem Analysis and Solutioning, PMO</t>
   </si>
   <si>
@@ -721,6 +745,9 @@
   </si>
   <si>
     <t>Strategic Planning, Problem Analysis and Solutioning, Events Planning</t>
+  </si>
+  <si>
+    <t>Software Implementation and/or Rollout, Strategic Planning, Business Change Management or Change Related Initiatives, Problem Analysis and Solutioning, Events Planning</t>
   </si>
   <si>
     <t>Priority</t>
@@ -1120,8 +1147,8 @@
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="176.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="53.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -1210,13 +1237,13 @@
         <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L2">
         <v>8</v>
@@ -1228,10 +1255,10 @@
         <v>91.11</v>
       </c>
       <c r="O2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q2">
         <v>5.99</v>
@@ -1263,10 +1290,10 @@
         <v>70</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1278,10 +1305,10 @@
         <v>77.04000000000001</v>
       </c>
       <c r="O3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q3">
         <v>4.71</v>
@@ -1313,13 +1340,13 @@
         <v>70</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L4">
         <v>10</v>
@@ -1331,10 +1358,10 @@
         <v>90</v>
       </c>
       <c r="O4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q4">
         <v>3.96</v>
@@ -1366,13 +1393,13 @@
         <v>71</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L5">
         <v>10</v>
@@ -1384,10 +1411,10 @@
         <v>86.31999999999999</v>
       </c>
       <c r="O5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q5">
         <v>4.53</v>
@@ -1419,13 +1446,13 @@
         <v>70</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L6">
         <v>8</v>
@@ -1437,10 +1464,10 @@
         <v>89.05</v>
       </c>
       <c r="O6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q6">
         <v>5.56</v>
@@ -1472,13 +1499,13 @@
         <v>71</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L7">
         <v>10</v>
@@ -1490,10 +1517,10 @@
         <v>82.86</v>
       </c>
       <c r="O7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q7">
         <v>5.68</v>
@@ -1525,13 +1552,13 @@
         <v>70</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L8">
         <v>8</v>
@@ -1543,10 +1570,10 @@
         <v>87.59</v>
       </c>
       <c r="O8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q8">
         <v>5.07</v>
@@ -1578,13 +1605,13 @@
         <v>70</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L9">
         <v>8</v>
@@ -1596,10 +1623,10 @@
         <v>87.59</v>
       </c>
       <c r="O9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q9">
         <v>4.68</v>
@@ -1631,13 +1658,13 @@
         <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L10">
         <v>10</v>
@@ -1649,10 +1676,10 @@
         <v>84.17</v>
       </c>
       <c r="O10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q10">
         <v>5.19</v>
@@ -1684,13 +1711,13 @@
         <v>70</v>
       </c>
       <c r="I11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L11">
         <v>10</v>
@@ -1702,10 +1729,10 @@
         <v>79.17</v>
       </c>
       <c r="O11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q11">
         <v>4.73</v>
@@ -1734,13 +1761,13 @@
         <v>70</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L12">
         <v>8</v>
@@ -1752,10 +1779,10 @@
         <v>83.64</v>
       </c>
       <c r="O12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q12">
         <v>3.61</v>
@@ -1784,13 +1811,13 @@
         <v>70</v>
       </c>
       <c r="I13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L13">
         <v>10</v>
@@ -1802,10 +1829,10 @@
         <v>80</v>
       </c>
       <c r="O13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q13">
         <v>3.83</v>
@@ -1837,10 +1864,10 @@
         <v>70</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1849,16 +1876,16 @@
         <v>8</v>
       </c>
       <c r="N14">
-        <v>75.81</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="O14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q14">
-        <v>4.32</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1884,31 +1911,31 @@
         <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="I15" t="s">
+        <v>85</v>
       </c>
       <c r="J15" t="s">
-        <v>105</v>
-      </c>
-      <c r="K15" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>8</v>
       </c>
       <c r="N15">
-        <v>29.3</v>
+        <v>75.81</v>
       </c>
       <c r="O15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q15">
-        <v>2.2</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1937,13 +1964,13 @@
         <v>71</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L16">
         <v>10</v>
@@ -1955,10 +1982,10 @@
         <v>75.45</v>
       </c>
       <c r="O16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q16">
         <v>4.5</v>
@@ -1990,13 +2017,13 @@
         <v>71</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L17">
         <v>10</v>
@@ -2008,10 +2035,10 @@
         <v>74.55</v>
       </c>
       <c r="O17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q17">
         <v>4.91</v>
@@ -2019,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
@@ -2028,7 +2055,7 @@
         <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
         <v>47</v>
@@ -2043,36 +2070,36 @@
         <v>71</v>
       </c>
       <c r="I18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s">
-        <v>108</v>
-      </c>
-      <c r="K18" t="s">
-        <v>125</v>
+        <v>107</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="L18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N18">
-        <v>65.88</v>
+        <v>73.91</v>
       </c>
       <c r="O18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q18">
-        <v>3.84</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
@@ -2081,7 +2108,7 @@
         <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
         <v>47</v>
@@ -2099,33 +2126,33 @@
         <v>89</v>
       </c>
       <c r="J19" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N19">
-        <v>61.18</v>
+        <v>56.96</v>
       </c>
       <c r="O19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q19">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -2134,7 +2161,7 @@
         <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
         <v>47</v>
@@ -2152,33 +2179,33 @@
         <v>90</v>
       </c>
       <c r="J20" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="K20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L20">
         <v>8</v>
       </c>
       <c r="M20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N20">
-        <v>56.96</v>
+        <v>65.88</v>
       </c>
       <c r="O20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q20">
-        <v>3.1</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -2187,7 +2214,7 @@
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
         <v>47</v>
@@ -2199,34 +2226,34 @@
         <v>69</v>
       </c>
       <c r="H21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J21" t="s">
-        <v>110</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>128</v>
+        <v>109</v>
+      </c>
+      <c r="K21" t="s">
+        <v>126</v>
       </c>
       <c r="L21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>10</v>
       </c>
       <c r="N21">
-        <v>52.61</v>
+        <v>61.18</v>
       </c>
       <c r="O21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q21">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
@@ -2239,7 +2266,7 @@
     <hyperlink ref="K13" r:id="rId6"/>
     <hyperlink ref="K16" r:id="rId7"/>
     <hyperlink ref="K17" r:id="rId8"/>
-    <hyperlink ref="K21" r:id="rId9"/>
+    <hyperlink ref="K18" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2265,28 +2292,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2297,22 +2324,22 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2326,19 +2353,19 @@
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2349,22 +2376,22 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2378,19 +2405,19 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2404,16 +2431,16 @@
         <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2424,16 +2451,16 @@
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2447,19 +2474,19 @@
         <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2473,68 +2500,68 @@
         <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G11" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2544,7 +2571,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2561,25 +2588,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2587,7 +2614,7 @@
         <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2">
         <v>8</v>
@@ -2596,10 +2623,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>3.61</v>
@@ -2610,7 +2637,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -2619,10 +2646,10 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G3">
         <v>4.91</v>
@@ -2630,10 +2657,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>214</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -2642,7 +2669,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>217</v>
       </c>
       <c r="G4">
         <v>2.2</v>
@@ -2653,7 +2680,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -2662,10 +2689,10 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G5">
         <v>3.83</v>
@@ -2676,7 +2703,7 @@
         <v>53</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -2685,10 +2712,10 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G6">
         <v>4.53</v>
@@ -2699,7 +2726,7 @@
         <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -2708,10 +2735,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7">
         <v>5.99</v>
@@ -2722,7 +2749,7 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -2731,10 +2758,10 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G8">
         <v>5.07</v>
@@ -2751,10 +2778,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G9">
         <v>4.71</v>
@@ -2765,7 +2792,7 @@
         <v>52</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -2774,10 +2801,10 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10">
         <v>3.96</v>
@@ -2785,7 +2812,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2794,7 +2821,7 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F11" t="s">
         <v>104</v>
@@ -2808,7 +2835,7 @@
         <v>58</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -2817,10 +2844,10 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G12">
         <v>5.19</v>
@@ -2828,7 +2855,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
         <v>126</v>
@@ -2840,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
         <v>109</v>
@@ -2851,10 +2878,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>213</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="C14">
         <v>8</v>
@@ -2863,10 +2890,10 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="F14" t="s">
-        <v>110</v>
+        <v>218</v>
       </c>
       <c r="G14">
         <v>3.15</v>
@@ -2877,7 +2904,7 @@
         <v>59</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -2886,10 +2913,10 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G15">
         <v>4.73</v>
@@ -2897,7 +2924,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
         <v>125</v>
@@ -2909,7 +2936,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
         <v>108</v>
@@ -2923,7 +2950,7 @@
         <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -2932,10 +2959,10 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G17">
         <v>5.56</v>
@@ -2946,7 +2973,7 @@
         <v>55</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -2955,10 +2982,10 @@
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G18">
         <v>5.68</v>
@@ -2969,7 +2996,7 @@
         <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -2978,10 +3005,10 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G19">
         <v>4.68</v>
@@ -2989,10 +3016,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -3001,10 +3028,10 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G20">
         <v>3.1</v>
@@ -3015,7 +3042,7 @@
         <v>64</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -3024,13 +3051,56 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G21">
         <v>4.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23">
+        <v>4.94</v>
       </c>
     </row>
   </sheetData>
@@ -3044,6 +3114,7 @@
     <hyperlink ref="B15" r:id="rId7"/>
     <hyperlink ref="B18" r:id="rId8"/>
     <hyperlink ref="B21" r:id="rId9"/>
+    <hyperlink ref="B22" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3051,7 +3122,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3068,13 +3139,13 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
@@ -3083,10 +3154,10 @@
         <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3109,7 +3180,7 @@
         <v>3.61</v>
       </c>
       <c r="G2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3132,7 +3203,7 @@
         <v>4.91</v>
       </c>
       <c r="G3" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3140,10 +3211,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>222</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -3155,7 +3226,7 @@
         <v>2.2</v>
       </c>
       <c r="G4" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3178,7 +3249,7 @@
         <v>3.83</v>
       </c>
       <c r="G5" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3201,7 +3272,7 @@
         <v>4.53</v>
       </c>
       <c r="G6" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3224,7 +3295,7 @@
         <v>5.99</v>
       </c>
       <c r="G7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3247,7 +3318,7 @@
         <v>5.07</v>
       </c>
       <c r="G8" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3270,7 +3341,7 @@
         <v>4.71</v>
       </c>
       <c r="G9" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3293,7 +3364,7 @@
         <v>3.96</v>
       </c>
       <c r="G10" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3301,7 +3372,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
@@ -3316,7 +3387,7 @@
         <v>4.32</v>
       </c>
       <c r="G11" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3339,7 +3410,7 @@
         <v>5.19</v>
       </c>
       <c r="G12" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3347,7 +3418,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>71</v>
@@ -3362,7 +3433,7 @@
         <v>3.5</v>
       </c>
       <c r="G13" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3370,10 +3441,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>223</v>
       </c>
       <c r="D14">
         <v>8</v>
@@ -3385,7 +3456,7 @@
         <v>3.15</v>
       </c>
       <c r="G14" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3408,7 +3479,7 @@
         <v>4.73</v>
       </c>
       <c r="G15" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3416,7 +3487,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
         <v>71</v>
@@ -3431,7 +3502,7 @@
         <v>3.84</v>
       </c>
       <c r="G16" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3454,7 +3525,7 @@
         <v>5.56</v>
       </c>
       <c r="G17" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3477,7 +3548,7 @@
         <v>5.68</v>
       </c>
       <c r="G18" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3500,7 +3571,7 @@
         <v>4.68</v>
       </c>
       <c r="G19" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3508,7 +3579,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
         <v>71</v>
@@ -3523,7 +3594,7 @@
         <v>3.1</v>
       </c>
       <c r="G20" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3546,7 +3617,53 @@
         <v>4.5</v>
       </c>
       <c r="G21" t="s">
-        <v>226</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>4.37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>4.94</v>
+      </c>
+      <c r="G23" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3571,19 +3688,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3693,7 +3810,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>46</v>
@@ -3744,7 +3861,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
